--- a/Svr.Web/wwwroot/Templates/0902.xlsx
+++ b/Svr.Web/wwwroot/Templates/0902.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="свод" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1186,7 +1186,7 @@
     <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1590,8 +1590,93 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1620,31 +1705,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1653,76 +1717,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -2060,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="69" zoomScaleNormal="90" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A76" zoomScale="69" zoomScaleNormal="90" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2106,40 +2114,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="25.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="142" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
       <c r="V1" s="23"/>
       <c r="W1" s="24"/>
       <c r="X1" s="23"/>
       <c r="Y1" s="24"/>
-      <c r="Z1" s="160" t="s">
+      <c r="Z1" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
       <c r="AC1" s="21"/>
       <c r="AD1" s="22"/>
       <c r="AE1" s="24"/>
@@ -2148,40 +2156,40 @@
       <c r="AH1" s="27"/>
     </row>
     <row r="2" spans="1:34" ht="21.75" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="142" t="s">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
       <c r="V2" s="23"/>
       <c r="W2" s="24"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="20"/>
-      <c r="Z2" s="159" t="s">
+      <c r="Z2" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
       <c r="AC2" s="20"/>
       <c r="AD2" s="19"/>
       <c r="AE2" s="20"/>
@@ -2190,58 +2198,58 @@
       <c r="AH2" s="27"/>
     </row>
     <row r="3" spans="1:34" ht="33.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="143" t="s">
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
       <c r="V3" s="28"/>
       <c r="W3" s="29"/>
       <c r="X3" s="28"/>
       <c r="Y3" s="30"/>
-      <c r="Z3" s="161" t="s">
+      <c r="Z3" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="161"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
       <c r="AH3" s="27"/>
     </row>
     <row r="4" spans="1:34" ht="20.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
       <c r="I4" s="29"/>
       <c r="J4" s="28"/>
       <c r="K4" s="20"/>
@@ -2259,9 +2267,9 @@
       <c r="W4" s="20"/>
       <c r="X4" s="19"/>
       <c r="Y4" s="20"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
       <c r="AC4" s="20"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="20"/>
@@ -2270,39 +2278,39 @@
       <c r="AH4" s="27"/>
     </row>
     <row r="5" spans="1:34" ht="37.5" customHeight="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="141" t="s">
+      <c r="A5" s="151"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="159"/>
       <c r="V5" s="28"/>
       <c r="W5" s="20"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="20"/>
-      <c r="Z5" s="159" t="s">
+      <c r="Z5" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="133"/>
+      <c r="AC5" s="133"/>
       <c r="AD5" s="19"/>
       <c r="AE5" s="20"/>
       <c r="AF5" s="19"/>
@@ -2310,39 +2318,39 @@
       <c r="AH5" s="27"/>
     </row>
     <row r="6" spans="1:34" ht="27" customHeight="1">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="143" t="s">
+      <c r="A6" s="158"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
       <c r="V6" s="28"/>
       <c r="W6" s="20"/>
       <c r="X6" s="19"/>
       <c r="Y6" s="20"/>
-      <c r="Z6" s="156" t="s">
+      <c r="Z6" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="156"/>
-      <c r="AC6" s="156"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="20"/>
       <c r="AF6" s="19"/>
@@ -2358,21 +2366,21 @@
       <c r="F7" s="19"/>
       <c r="G7" s="29"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="157" t="s">
+      <c r="I7" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="157"/>
-      <c r="U7" s="157"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
       <c r="V7" s="28"/>
       <c r="W7" s="20"/>
       <c r="X7" s="19"/>
@@ -2396,19 +2404,19 @@
       <c r="F8" s="22"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="158"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
       <c r="V8" s="23"/>
       <c r="W8" s="21"/>
       <c r="X8" s="22"/>
@@ -2420,126 +2428,126 @@
       <c r="AD8" s="19"/>
       <c r="AE8" s="20"/>
       <c r="AF8" s="19"/>
-      <c r="AG8" s="154" t="s">
+      <c r="AG8" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="AH8" s="154"/>
+      <c r="AH8" s="144"/>
     </row>
     <row r="9" spans="1:34" ht="15.75" customHeight="1">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="133" t="s">
+      <c r="D9" s="139"/>
+      <c r="E9" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="138" t="s">
+      <c r="F9" s="125"/>
+      <c r="G9" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="138" t="s">
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="139"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="140"/>
-      <c r="AE9" s="133" t="s">
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="162" t="s">
+      <c r="AF9" s="139"/>
+      <c r="AG9" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="AH9" s="134"/>
+      <c r="AH9" s="125"/>
     </row>
     <row r="10" spans="1:34" ht="153" customHeight="1">
-      <c r="A10" s="128"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="138" t="s">
+      <c r="A10" s="153"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="140"/>
-      <c r="I10" s="138" t="s">
+      <c r="H10" s="132"/>
+      <c r="I10" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="140"/>
-      <c r="K10" s="144" t="s">
+      <c r="J10" s="132"/>
+      <c r="K10" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="140"/>
-      <c r="M10" s="144" t="s">
+      <c r="L10" s="132"/>
+      <c r="M10" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="N10" s="153"/>
-      <c r="O10" s="145" t="s">
+      <c r="N10" s="129"/>
+      <c r="O10" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="145" t="s">
+      <c r="P10" s="129"/>
+      <c r="Q10" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="146"/>
-      <c r="S10" s="138" t="s">
+      <c r="R10" s="161"/>
+      <c r="S10" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="140"/>
-      <c r="U10" s="144" t="s">
+      <c r="T10" s="132"/>
+      <c r="U10" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="140"/>
-      <c r="W10" s="144" t="s">
+      <c r="V10" s="132"/>
+      <c r="W10" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="144" t="s">
+      <c r="X10" s="132"/>
+      <c r="Y10" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="144" t="s">
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="144" t="s">
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="135"/>
-      <c r="AH10" s="136"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="141"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="127"/>
     </row>
     <row r="11" spans="1:34" ht="32.25" customHeight="1">
-      <c r="A11" s="129"/>
-      <c r="B11" s="132"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="49" t="s">
         <v>29</v>
       </c>
@@ -2882,8 +2890,14 @@
       <c r="B14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="162">
+        <f>SUM(C15:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="163">
+        <f>SUM(D15:D17)</f>
+        <v>0</v>
+      </c>
       <c r="E14" s="35">
         <f>G14+S14</f>
         <v>0</v>
@@ -2900,16 +2914,46 @@
         <f>J14+L14+N14+P14+R14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="41"/>
+      <c r="I14" s="162">
+        <f>SUM(I15:I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="163">
+        <f>SUM(J15:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="162">
+        <f>SUM(K15:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="163">
+        <f>SUM(L15:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="162">
+        <f>SUM(M15:M17)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="163">
+        <f>SUM(N15:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="162">
+        <f>SUM(O15:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="163">
+        <f>SUM(P15:P17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="162">
+        <f>SUM(Q15:Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="163">
+        <f>SUM(R15:R17)</f>
+        <v>0</v>
+      </c>
       <c r="S14" s="35">
         <f>U14+W14+Y14+AA14+AC14</f>
         <v>0</v>
@@ -2918,20 +2962,62 @@
         <f>V14+X14+Z14+AB14+AD14</f>
         <v>0</v>
       </c>
-      <c r="U14" s="40"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="41"/>
+      <c r="U14" s="162">
+        <f>SUM(U15:U17)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="163">
+        <f>SUM(V15:V17)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="162">
+        <f>SUM(W15:W17)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="163">
+        <f>SUM(X15:X17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="162">
+        <f>SUM(Y15:Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="163">
+        <f>SUM(Z15:Z17)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="162">
+        <f>SUM(AA15:AA17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="163">
+        <f>SUM(AB15:AB17)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="162">
+        <f>SUM(AC15:AC17)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="163">
+        <f>SUM(AD15:AD17)</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="162">
+        <f>SUM(AE15:AE17)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="163">
+        <f>SUM(AF15:AF17)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="162">
+        <f>SUM(AG15:AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="163">
+        <f>SUM(AH15:AH17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="63.75" customHeight="1">
       <c r="A15" s="64">
@@ -3114,8 +3200,14 @@
       <c r="B18" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="37">
+        <f>SUM(C19:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="164">
+        <f>SUM(D19:D20)</f>
+        <v>0</v>
+      </c>
       <c r="E18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3132,16 +3224,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="38"/>
+      <c r="I18" s="37">
+        <f>SUM(I19:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="164">
+        <f>SUM(J19:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
+        <f>SUM(K19:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="164">
+        <f>SUM(L19:L20)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="37">
+        <f>SUM(M19:M20)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="164">
+        <f>SUM(N19:N20)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="37">
+        <f>SUM(O19:O20)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="164">
+        <f>SUM(P19:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="37">
+        <f>SUM(Q19:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="164">
+        <f>SUM(R19:R20)</f>
+        <v>0</v>
+      </c>
       <c r="S18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3150,20 +3272,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U18" s="39"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="38"/>
+      <c r="U18" s="37">
+        <f>SUM(U19:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="164">
+        <f>SUM(V19:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="37">
+        <f>SUM(W19:W20)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="164">
+        <f>SUM(X19:X20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="37">
+        <f>SUM(Y19:Y20)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="164">
+        <f>SUM(Z19:Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="37">
+        <f>SUM(AA19:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="164">
+        <f>SUM(AB19:AB20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="37">
+        <f>SUM(AC19:AC20)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="164">
+        <f>SUM(AD19:AD20)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="37">
+        <f>SUM(AE19:AE20)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="164">
+        <f>SUM(AF19:AF20)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="37">
+        <f>SUM(AG19:AG20)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="164">
+        <f>SUM(AH19:AH20)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:34" ht="71.25" customHeight="1">
       <c r="A19" s="64">
@@ -3288,8 +3452,14 @@
       <c r="B21" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
+      <c r="C21" s="37">
+        <f>SUM(C22:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="164">
+        <f>SUM(D22:D24)</f>
+        <v>0</v>
+      </c>
       <c r="E21" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3306,16 +3476,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="38"/>
+      <c r="I21" s="37">
+        <f>SUM(I22:I24)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="164">
+        <f>SUM(J22:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="37">
+        <f>SUM(K22:K24)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="164">
+        <f>SUM(L22:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="37">
+        <f>SUM(M22:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="164">
+        <f>SUM(N22:N24)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="37">
+        <f>SUM(O22:O24)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="164">
+        <f>SUM(P22:P24)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="37">
+        <f>SUM(Q22:Q24)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="164">
+        <f>SUM(R22:R24)</f>
+        <v>0</v>
+      </c>
       <c r="S21" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3324,20 +3524,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U21" s="39"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="38"/>
+      <c r="U21" s="37">
+        <f>SUM(U22:U24)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="164">
+        <f>SUM(V22:V24)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="37">
+        <f>SUM(W22:W24)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="164">
+        <f>SUM(X22:X24)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="37">
+        <f>SUM(Y22:Y24)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="164">
+        <f>SUM(Z22:Z24)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="37">
+        <f>SUM(AA22:AA24)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="164">
+        <f>SUM(AB22:AB24)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="37">
+        <f>SUM(AC22:AC24)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="164">
+        <f>SUM(AD22:AD24)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="37">
+        <f>SUM(AE22:AE24)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="164">
+        <f>SUM(AF22:AF24)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="37">
+        <f>SUM(AG22:AG24)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="164">
+        <f>SUM(AH22:AH24)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="42.75" customHeight="1">
       <c r="A22" s="64">
@@ -3520,8 +3762,14 @@
       <c r="B25" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
+      <c r="C25" s="37">
+        <f>SUM(C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="164">
+        <f>SUM(D26)</f>
+        <v>0</v>
+      </c>
       <c r="E25" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3538,16 +3786,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="38"/>
+      <c r="I25" s="37">
+        <f>SUM(I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="164">
+        <f>SUM(J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="37">
+        <f>SUM(K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="164">
+        <f>SUM(L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="37">
+        <f>SUM(M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="164">
+        <f>SUM(N26)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="37">
+        <f>SUM(O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="164">
+        <f>SUM(P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="37">
+        <f>SUM(Q26)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="164">
+        <f>SUM(R26)</f>
+        <v>0</v>
+      </c>
       <c r="S25" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3556,20 +3834,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U25" s="40"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="41"/>
+      <c r="U25" s="37">
+        <f>SUM(U26)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="164">
+        <f>SUM(V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="37">
+        <f>SUM(W26)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="164">
+        <f>SUM(X26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="37">
+        <f>SUM(Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="164">
+        <f>SUM(Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="37">
+        <f>SUM(AA26)</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="164">
+        <f>SUM(AB26)</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="37">
+        <f>SUM(AC26)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="164">
+        <f>SUM(AD26)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="37">
+        <f>SUM(AE26)</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="164">
+        <f>SUM(AF26)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="37">
+        <f>SUM(AG26)</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="164">
+        <f>SUM(AH26)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="33.75" customHeight="1">
       <c r="A26" s="64">
@@ -3886,8 +4206,14 @@
       <c r="B30" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="37">
+        <f>SUM(C31:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="164">
+        <f>SUM(D31:D32)</f>
+        <v>0</v>
+      </c>
       <c r="E30" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3904,16 +4230,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="38"/>
+      <c r="I30" s="37">
+        <f>SUM(I31:I32)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="164">
+        <f>SUM(J31:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="37">
+        <f>SUM(K31:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="164">
+        <f>SUM(L31:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="37">
+        <f>SUM(M31:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="164">
+        <f>SUM(N31:N32)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="37">
+        <f>SUM(O31:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="164">
+        <f>SUM(P31:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="37">
+        <f>SUM(Q31:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="164">
+        <f>SUM(R31:R32)</f>
+        <v>0</v>
+      </c>
       <c r="S30" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3922,20 +4278,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U30" s="39"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="38"/>
+      <c r="U30" s="37">
+        <f>SUM(U31:U32)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="164">
+        <f>SUM(V31:V32)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="37">
+        <f>SUM(W31:W32)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="164">
+        <f>SUM(X31:X32)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="37">
+        <f>SUM(Y31:Y32)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="164">
+        <f>SUM(Z31:Z32)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="37">
+        <f>SUM(AA31:AA32)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="164">
+        <f>SUM(AB31:AB32)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="37">
+        <f>SUM(AC31:AC32)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="164">
+        <f>SUM(AD31:AD32)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="37">
+        <f>SUM(AE31:AE32)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="164">
+        <f>SUM(AF31:AF32)</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="37">
+        <f>SUM(AG31:AG32)</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="164">
+        <f>SUM(AH31:AH32)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:34" ht="57.75" customHeight="1">
       <c r="A31" s="64">
@@ -4060,8 +4458,14 @@
       <c r="B33" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="37">
+        <f>SUM(C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="164">
+        <f>SUM(D34)</f>
+        <v>0</v>
+      </c>
       <c r="E33" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4078,16 +4482,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="38"/>
+      <c r="I33" s="37">
+        <f>SUM(I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="164">
+        <f>SUM(J34)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="37">
+        <f>SUM(K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="164">
+        <f>SUM(L34)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="37">
+        <f>SUM(M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="164">
+        <f>SUM(N34)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="37">
+        <f>SUM(O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="164">
+        <f>SUM(P34)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="37">
+        <f>SUM(Q34)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="164">
+        <f>SUM(R34)</f>
+        <v>0</v>
+      </c>
       <c r="S33" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4096,20 +4530,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U33" s="39"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="38"/>
+      <c r="U33" s="37">
+        <f>SUM(U34)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="164">
+        <f>SUM(V34)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="37">
+        <f>SUM(W34)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="164">
+        <f>SUM(X34)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="37">
+        <f>SUM(Y34)</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="164">
+        <f>SUM(Z34)</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="37">
+        <f>SUM(AA34)</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="164">
+        <f>SUM(AB34)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="37">
+        <f>SUM(AC34)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="164">
+        <f>SUM(AD34)</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="37">
+        <f>SUM(AE34)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="164">
+        <f>SUM(AF34)</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="37">
+        <f>SUM(AG34)</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="164">
+        <f>SUM(AH34)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:34" ht="46.5" customHeight="1">
       <c r="A34" s="64">
@@ -4234,8 +4710,14 @@
       <c r="B36" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
+      <c r="C36" s="37">
+        <f>SUM(C37:C38,C41,C46,C47,C48,C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="164">
+        <f>SUM(D37:D38,D41,D46,D47,D48,D49)</f>
+        <v>0</v>
+      </c>
       <c r="E36" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4252,16 +4734,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="38"/>
+      <c r="I36" s="37">
+        <f>SUM(I37:I38,I41,I46,I47,I48,I49)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="164">
+        <f>SUM(J37:J38,J41,J46,J47,J48,J49)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="37">
+        <f>SUM(K37:K38,K41,K46,K47,K48,K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="164">
+        <f>SUM(L37:L38,L41,L46,L47,L48,L49)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="37">
+        <f>SUM(M37:M38,M41,M46,M47,M48,M49)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="164">
+        <f>SUM(N37:N38,N41,N46,N47,N48,N49)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="37">
+        <f>SUM(O37:O38,O41,O46,O47,O48,O49)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="164">
+        <f>SUM(P37:P38,P41,P46,P47,P48,P49)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="37">
+        <f>SUM(Q37:Q38,Q41,Q46,Q47,Q48,Q49)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="164">
+        <f>SUM(R37:R38,R41,R46,R47,R48,R49)</f>
+        <v>0</v>
+      </c>
       <c r="S36" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4270,20 +4782,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U36" s="39"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="38"/>
+      <c r="U36" s="37">
+        <f>SUM(U37:U38,U41,U46,U47,U48,U49)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="164">
+        <f>SUM(V37:V38,V41,V46,V47,V48,V49)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="37">
+        <f>SUM(W37:W38,W41,W46,W47,W48,W49)</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="164">
+        <f>SUM(X37:X38,X41,X46,X47,X48,X49)</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="37">
+        <f>SUM(Y37:Y38,Y41,Y46,Y47,Y48,Y49)</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="164">
+        <f>SUM(Z37:Z38,Z41,Z46,Z47,Z48,Z49)</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="37">
+        <f>SUM(AA37:AA38,AA41,AA46,AA47,AA48,AA49)</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="164">
+        <f>SUM(AB37:AB38,AB41,AB46,AB47,AB48,AB49)</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="37">
+        <f>SUM(AC37:AC38,AC41,AC46,AC47,AC48,AC49)</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="164">
+        <f>SUM(AD37:AD38,AD41,AD46,AD47,AD48,AD49)</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="37">
+        <f>SUM(AE37:AE38,AE41,AE46,AE47,AE48,AE49)</f>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="164">
+        <f>SUM(AF37:AF38,AF41,AF46,AF47,AF48,AF49)</f>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="37">
+        <f>SUM(AG37:AG38,AG41,AG46,AG47,AG48,AG49)</f>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="164">
+        <f>SUM(AH37:AH38,AH41,AH46,AH47,AH48,AH49)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:34" ht="27" customHeight="1">
       <c r="A37" s="75">
@@ -4350,8 +4904,14 @@
       <c r="B38" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
+      <c r="C38" s="37">
+        <f>SUM(C39:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="164">
+        <f>SUM(D39:D40)</f>
+        <v>0</v>
+      </c>
       <c r="E38" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4368,16 +4928,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="38"/>
+      <c r="I38" s="37">
+        <f>SUM(I39:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="164">
+        <f>SUM(J39:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="37">
+        <f>SUM(K39:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="164">
+        <f>SUM(L39:L40)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="37">
+        <f>SUM(M39:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="164">
+        <f>SUM(N39:N40)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="37">
+        <f>SUM(O39:O40)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="164">
+        <f>SUM(P39:P40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="37">
+        <f>SUM(Q39:Q40)</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="164">
+        <f>SUM(R39:R40)</f>
+        <v>0</v>
+      </c>
       <c r="S38" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4386,20 +4976,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U38" s="39"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="38"/>
+      <c r="U38" s="37">
+        <f>SUM(U39:U40)</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="164">
+        <f>SUM(V39:V40)</f>
+        <v>0</v>
+      </c>
+      <c r="W38" s="37">
+        <f>SUM(W39:W40)</f>
+        <v>0</v>
+      </c>
+      <c r="X38" s="164">
+        <f>SUM(X39:X40)</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="37">
+        <f>SUM(Y39:Y40)</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="164">
+        <f>SUM(Z39:Z40)</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="37">
+        <f>SUM(AA39:AA40)</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="164">
+        <f>SUM(AB39:AB40)</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="37">
+        <f>SUM(AC39:AC40)</f>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="164">
+        <f>SUM(AD39:AD40)</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="37">
+        <f>SUM(AE39:AE40)</f>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="164">
+        <f>SUM(AF39:AF40)</f>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="37">
+        <f>SUM(AG39:AG40)</f>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="164">
+        <f>SUM(AH39:AH40)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:34" ht="26.25" customHeight="1">
       <c r="A39" s="76" t="s">
@@ -4524,8 +5156,14 @@
       <c r="B41" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+      <c r="C41" s="37">
+        <f>SUM(C42:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="164">
+        <f>SUM(D42:D45)</f>
+        <v>0</v>
+      </c>
       <c r="E41" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4542,16 +5180,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="38"/>
+      <c r="I41" s="37">
+        <f>SUM(I42:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="164">
+        <f>SUM(J42:J45)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="37">
+        <f>SUM(K42:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="164">
+        <f>SUM(L42:L45)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="37">
+        <f>SUM(M42:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="164">
+        <f>SUM(N42:N45)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="37">
+        <f>SUM(O42:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="164">
+        <f>SUM(P42:P45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="37">
+        <f>SUM(Q42:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="164">
+        <f>SUM(R42:R45)</f>
+        <v>0</v>
+      </c>
       <c r="S41" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4560,20 +5228,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U41" s="39"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="39"/>
-      <c r="AH41" s="38"/>
+      <c r="U41" s="37">
+        <f>SUM(U42:U45)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="164">
+        <f>SUM(V42:V45)</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="37">
+        <f>SUM(W42:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="164">
+        <f>SUM(X42:X45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="37">
+        <f>SUM(Y42:Y45)</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="164">
+        <f>SUM(Z42:Z45)</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="37">
+        <f>SUM(AA42:AA45)</f>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="164">
+        <f>SUM(AB42:AB45)</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="37">
+        <f>SUM(AC42:AC45)</f>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="164">
+        <f>SUM(AD42:AD45)</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="37">
+        <f>SUM(AE42:AE45)</f>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="164">
+        <f>SUM(AF42:AF45)</f>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="37">
+        <f>SUM(AG42:AG45)</f>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="164">
+        <f>SUM(AH42:AH45)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:34" ht="26.25" customHeight="1">
       <c r="A42" s="76" t="s">
@@ -5104,8 +5814,14 @@
       <c r="B51" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="38"/>
+      <c r="C51" s="37">
+        <f>SUM(C52:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="164">
+        <f>SUM(D52:D53)</f>
+        <v>0</v>
+      </c>
       <c r="E51" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5122,16 +5838,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I51" s="39"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="38"/>
+      <c r="I51" s="37">
+        <f>SUM(I52:I53)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="164">
+        <f>SUM(J52:J53)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="37">
+        <f>SUM(K52:K53)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="164">
+        <f>SUM(L52:L53)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="37">
+        <f>SUM(M52:M53)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="164">
+        <f>SUM(N52:N53)</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="37">
+        <f>SUM(O52:O53)</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="164">
+        <f>SUM(P52:P53)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="37">
+        <f>SUM(Q52:Q53)</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="164">
+        <f>SUM(R52:R53)</f>
+        <v>0</v>
+      </c>
       <c r="S51" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5140,20 +5886,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U51" s="39"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="38"/>
-      <c r="AC51" s="39"/>
-      <c r="AD51" s="38"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="38"/>
-      <c r="AG51" s="39"/>
-      <c r="AH51" s="38"/>
+      <c r="U51" s="37">
+        <f>SUM(U52:U53)</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="164">
+        <f>SUM(V52:V53)</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="37">
+        <f>SUM(W52:W53)</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="164">
+        <f>SUM(X52:X53)</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="37">
+        <f>SUM(Y52:Y53)</f>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="164">
+        <f>SUM(Z52:Z53)</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="37">
+        <f>SUM(AA52:AA53)</f>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="164">
+        <f>SUM(AB52:AB53)</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="37">
+        <f>SUM(AC52:AC53)</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="164">
+        <f>SUM(AD52:AD53)</f>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="37">
+        <f>SUM(AE52:AE53)</f>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="164">
+        <f>SUM(AF52:AF53)</f>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="37">
+        <f>SUM(AG52:AG53)</f>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="164">
+        <f>SUM(AH52:AH53)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:34" ht="50.25" customHeight="1">
       <c r="A52" s="83" t="s">
@@ -5626,8 +6414,14 @@
       <c r="B60" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="43"/>
+      <c r="C60" s="37">
+        <f>SUM(C61)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="164">
+        <f>SUM(D61)</f>
+        <v>0</v>
+      </c>
       <c r="E60" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5644,16 +6438,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I60" s="44"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="43"/>
+      <c r="I60" s="37">
+        <f>SUM(I61)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="164">
+        <f>SUM(J61)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="37">
+        <f>SUM(K61)</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="164">
+        <f>SUM(L61)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="37">
+        <f>SUM(M61)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="164">
+        <f>SUM(N61)</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="37">
+        <f>SUM(O61)</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="164">
+        <f>SUM(P61)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="37">
+        <f>SUM(Q61)</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="164">
+        <f>SUM(R61)</f>
+        <v>0</v>
+      </c>
       <c r="S60" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5662,20 +6486,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U60" s="44"/>
-      <c r="V60" s="43"/>
-      <c r="W60" s="44"/>
-      <c r="X60" s="43"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="43"/>
-      <c r="AA60" s="44"/>
-      <c r="AB60" s="43"/>
-      <c r="AC60" s="44"/>
-      <c r="AD60" s="43"/>
-      <c r="AE60" s="44"/>
-      <c r="AF60" s="43"/>
-      <c r="AG60" s="44"/>
-      <c r="AH60" s="43"/>
+      <c r="U60" s="37">
+        <f>SUM(U61)</f>
+        <v>0</v>
+      </c>
+      <c r="V60" s="164">
+        <f>SUM(V61)</f>
+        <v>0</v>
+      </c>
+      <c r="W60" s="37">
+        <f>SUM(W61)</f>
+        <v>0</v>
+      </c>
+      <c r="X60" s="164">
+        <f>SUM(X61)</f>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="37">
+        <f>SUM(Y61)</f>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="164">
+        <f>SUM(Z61)</f>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="37">
+        <f>SUM(AA61)</f>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="164">
+        <f>SUM(AB61)</f>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="37">
+        <f>SUM(AC61)</f>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="164">
+        <f>SUM(AD61)</f>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="37">
+        <f>SUM(AE61)</f>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="164">
+        <f>SUM(AF61)</f>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="37">
+        <f>SUM(AG61)</f>
+        <v>0</v>
+      </c>
+      <c r="AH60" s="164">
+        <f>SUM(AH61)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:34" ht="83.25" customHeight="1">
       <c r="A61" s="76" t="s">
@@ -5742,8 +6608,14 @@
       <c r="B62" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="43"/>
+      <c r="C62" s="37">
+        <f>SUM(C63)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="164">
+        <f>SUM(D63)</f>
+        <v>0</v>
+      </c>
       <c r="E62" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5760,16 +6632,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I62" s="44"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="43"/>
+      <c r="I62" s="37">
+        <f>SUM(I63)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="164">
+        <f>SUM(J63)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="37">
+        <f>SUM(K63)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="164">
+        <f>SUM(L63)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="37">
+        <f>SUM(M63)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="164">
+        <f>SUM(N63)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="37">
+        <f>SUM(O63)</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="164">
+        <f>SUM(P63)</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="37">
+        <f>SUM(Q63)</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="164">
+        <f>SUM(R63)</f>
+        <v>0</v>
+      </c>
       <c r="S62" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5778,20 +6680,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U62" s="44"/>
-      <c r="V62" s="43"/>
-      <c r="W62" s="44"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="44"/>
-      <c r="Z62" s="43"/>
-      <c r="AA62" s="44"/>
-      <c r="AB62" s="43"/>
-      <c r="AC62" s="44"/>
-      <c r="AD62" s="43"/>
-      <c r="AE62" s="44"/>
-      <c r="AF62" s="43"/>
-      <c r="AG62" s="44"/>
-      <c r="AH62" s="43"/>
+      <c r="U62" s="37">
+        <f>SUM(U63)</f>
+        <v>0</v>
+      </c>
+      <c r="V62" s="164">
+        <f>SUM(V63)</f>
+        <v>0</v>
+      </c>
+      <c r="W62" s="37">
+        <f>SUM(W63)</f>
+        <v>0</v>
+      </c>
+      <c r="X62" s="164">
+        <f>SUM(X63)</f>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="37">
+        <f>SUM(Y63)</f>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="164">
+        <f>SUM(Z63)</f>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="37">
+        <f>SUM(AA63)</f>
+        <v>0</v>
+      </c>
+      <c r="AB62" s="164">
+        <f>SUM(AB63)</f>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="37">
+        <f>SUM(AC63)</f>
+        <v>0</v>
+      </c>
+      <c r="AD62" s="164">
+        <f>SUM(AD63)</f>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="37">
+        <f>SUM(AE63)</f>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="164">
+        <f>SUM(AF63)</f>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="37">
+        <f>SUM(AG63)</f>
+        <v>0</v>
+      </c>
+      <c r="AH62" s="164">
+        <f>SUM(AH63)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:34" ht="127.5" customHeight="1">
       <c r="A63" s="80" t="s">
@@ -5916,8 +6860,14 @@
       <c r="B65" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="43"/>
+      <c r="C65" s="37">
+        <f>SUM(C66:C70)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="164">
+        <f>SUM(D66:D70)</f>
+        <v>0</v>
+      </c>
       <c r="E65" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5934,16 +6884,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I65" s="44"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="43"/>
+      <c r="I65" s="37">
+        <f>SUM(I66:I70)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="164">
+        <f>SUM(J66:J70)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="37">
+        <f>SUM(K66:K70)</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="164">
+        <f>SUM(L66:L70)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="37">
+        <f>SUM(M66:M70)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="164">
+        <f>SUM(N66:N70)</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="37">
+        <f>SUM(O66:O70)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="164">
+        <f>SUM(P66:P70)</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="37">
+        <f>SUM(Q66:Q70)</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="164">
+        <f>SUM(R66:R70)</f>
+        <v>0</v>
+      </c>
       <c r="S65" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5952,20 +6932,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U65" s="44"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="44"/>
-      <c r="Z65" s="43"/>
-      <c r="AA65" s="44"/>
-      <c r="AB65" s="43"/>
-      <c r="AC65" s="44"/>
-      <c r="AD65" s="43"/>
-      <c r="AE65" s="44"/>
-      <c r="AF65" s="43"/>
-      <c r="AG65" s="44"/>
-      <c r="AH65" s="43"/>
+      <c r="U65" s="37">
+        <f>SUM(U66:U70)</f>
+        <v>0</v>
+      </c>
+      <c r="V65" s="164">
+        <f>SUM(V66:V70)</f>
+        <v>0</v>
+      </c>
+      <c r="W65" s="37">
+        <f>SUM(W66:W70)</f>
+        <v>0</v>
+      </c>
+      <c r="X65" s="164">
+        <f>SUM(X66:X70)</f>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="37">
+        <f>SUM(Y66:Y70)</f>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="164">
+        <f>SUM(Z66:Z70)</f>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="37">
+        <f>SUM(AA66:AA70)</f>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="164">
+        <f>SUM(AB66:AB70)</f>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="37">
+        <f>SUM(AC66:AC70)</f>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="164">
+        <f>SUM(AD66:AD70)</f>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="37">
+        <f>SUM(AE66:AE70)</f>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="164">
+        <f>SUM(AF66:AF70)</f>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="37">
+        <f>SUM(AG66:AG70)</f>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="164">
+        <f>SUM(AH66:AH70)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:34" ht="46.5" customHeight="1">
       <c r="A66" s="87" t="s">
@@ -6264,8 +7286,14 @@
       <c r="B71" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="38"/>
+      <c r="C71" s="37">
+        <f>SUM(C72:C80)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="164">
+        <f>SUM(D72:D80)</f>
+        <v>0</v>
+      </c>
       <c r="E71" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6282,16 +7310,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I71" s="39"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="38"/>
+      <c r="I71" s="37">
+        <f>SUM(I72:I80)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="164">
+        <f>SUM(J72:J80)</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="37">
+        <f>SUM(K72:K80)</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="164">
+        <f>SUM(L72:L80)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="37">
+        <f>SUM(M72:M80)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="164">
+        <f>SUM(N72:N80)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="37">
+        <f>SUM(O72:O80)</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="164">
+        <f>SUM(P72:P80)</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="37">
+        <f>SUM(Q72:Q80)</f>
+        <v>0</v>
+      </c>
+      <c r="R71" s="164">
+        <f>SUM(R72:R80)</f>
+        <v>0</v>
+      </c>
       <c r="S71" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6300,20 +7358,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U71" s="39"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="38"/>
-      <c r="AA71" s="39"/>
-      <c r="AB71" s="38"/>
-      <c r="AC71" s="39"/>
-      <c r="AD71" s="38"/>
-      <c r="AE71" s="39"/>
-      <c r="AF71" s="38"/>
-      <c r="AG71" s="39"/>
-      <c r="AH71" s="38"/>
+      <c r="U71" s="37">
+        <f>SUM(U72:U80)</f>
+        <v>0</v>
+      </c>
+      <c r="V71" s="164">
+        <f>SUM(V72:V80)</f>
+        <v>0</v>
+      </c>
+      <c r="W71" s="37">
+        <f>SUM(W72:W80)</f>
+        <v>0</v>
+      </c>
+      <c r="X71" s="164">
+        <f>SUM(X72:X80)</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="37">
+        <f>SUM(Y72:Y80)</f>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="164">
+        <f>SUM(Z72:Z80)</f>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="37">
+        <f>SUM(AA72:AA80)</f>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="164">
+        <f>SUM(AB72:AB80)</f>
+        <v>0</v>
+      </c>
+      <c r="AC71" s="37">
+        <f>SUM(AC72:AC80)</f>
+        <v>0</v>
+      </c>
+      <c r="AD71" s="164">
+        <f>SUM(AD72:AD80)</f>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="37">
+        <f>SUM(AE72:AE80)</f>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="164">
+        <f>SUM(AF72:AF80)</f>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="37">
+        <f>SUM(AG72:AG80)</f>
+        <v>0</v>
+      </c>
+      <c r="AH71" s="164">
+        <f>SUM(AH72:AH80)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:34" ht="72.75" customHeight="1">
       <c r="A72" s="76" t="s">
@@ -7150,8 +8250,14 @@
       <c r="B85" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="38"/>
+      <c r="C85" s="37">
+        <f>SUM(C86:C87)</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="164">
+        <f>SUM(D86:D87)</f>
+        <v>0</v>
+      </c>
       <c r="E85" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7168,16 +8274,46 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I85" s="39"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="39"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="38"/>
+      <c r="I85" s="37">
+        <f>SUM(I86:I87)</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="164">
+        <f>SUM(J86:J87)</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="37">
+        <f>SUM(K86:K87)</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="164">
+        <f>SUM(L86:L87)</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="37">
+        <f>SUM(M86:M87)</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="164">
+        <f>SUM(N86:N87)</f>
+        <v>0</v>
+      </c>
+      <c r="O85" s="37">
+        <f>SUM(O86:O87)</f>
+        <v>0</v>
+      </c>
+      <c r="P85" s="164">
+        <f>SUM(P86:P87)</f>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="37">
+        <f>SUM(Q86:Q87)</f>
+        <v>0</v>
+      </c>
+      <c r="R85" s="164">
+        <f>SUM(R86:R87)</f>
+        <v>0</v>
+      </c>
       <c r="S85" s="35">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7186,20 +8322,62 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U85" s="39"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="39"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="39"/>
-      <c r="Z85" s="38"/>
-      <c r="AA85" s="39"/>
-      <c r="AB85" s="38"/>
-      <c r="AC85" s="39"/>
-      <c r="AD85" s="38"/>
-      <c r="AE85" s="39"/>
-      <c r="AF85" s="38"/>
-      <c r="AG85" s="39"/>
-      <c r="AH85" s="38"/>
+      <c r="U85" s="37">
+        <f>SUM(U86:U87)</f>
+        <v>0</v>
+      </c>
+      <c r="V85" s="164">
+        <f>SUM(V86:V87)</f>
+        <v>0</v>
+      </c>
+      <c r="W85" s="37">
+        <f>SUM(W86:W87)</f>
+        <v>0</v>
+      </c>
+      <c r="X85" s="164">
+        <f>SUM(X86:X87)</f>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="37">
+        <f>SUM(Y86:Y87)</f>
+        <v>0</v>
+      </c>
+      <c r="Z85" s="164">
+        <f>SUM(Z86:Z87)</f>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="37">
+        <f>SUM(AA86:AA87)</f>
+        <v>0</v>
+      </c>
+      <c r="AB85" s="164">
+        <f>SUM(AB86:AB87)</f>
+        <v>0</v>
+      </c>
+      <c r="AC85" s="37">
+        <f>SUM(AC86:AC87)</f>
+        <v>0</v>
+      </c>
+      <c r="AD85" s="164">
+        <f>SUM(AD86:AD87)</f>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="37">
+        <f>SUM(AE86:AE87)</f>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="164">
+        <f>SUM(AF86:AF87)</f>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="37">
+        <f>SUM(AG86:AG87)</f>
+        <v>0</v>
+      </c>
+      <c r="AH85" s="164">
+        <f>SUM(AH86:AH87)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:34" ht="42" customHeight="1">
       <c r="A86" s="87" t="s">
@@ -7324,8 +8502,14 @@
       <c r="B88" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="68"/>
-      <c r="D88" s="102"/>
+      <c r="C88" s="68">
+        <f>SUM(C89:C94)</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="102">
+        <f>SUM(D89:D94)</f>
+        <v>0</v>
+      </c>
       <c r="E88" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7832,86 +9016,86 @@
       <c r="AH95" s="7"/>
     </row>
     <row r="96" spans="1:34" ht="33" customHeight="1">
-      <c r="A96" s="151" t="s">
+      <c r="A96" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="152"/>
-      <c r="C96" s="152"/>
-      <c r="D96" s="152"/>
-      <c r="E96" s="152"/>
-      <c r="F96" s="152"/>
-      <c r="G96" s="152"/>
-      <c r="H96" s="152"/>
-      <c r="I96" s="152"/>
-      <c r="J96" s="152"/>
-      <c r="K96" s="152"/>
-      <c r="L96" s="152"/>
-      <c r="M96" s="152"/>
-      <c r="N96" s="152"/>
-      <c r="O96" s="152"/>
-      <c r="P96" s="152"/>
-      <c r="Q96" s="152"/>
-      <c r="R96" s="152"/>
-      <c r="S96" s="152"/>
-      <c r="T96" s="152"/>
-      <c r="U96" s="152"/>
-      <c r="V96" s="152"/>
-      <c r="W96" s="152"/>
-      <c r="X96" s="152"/>
-      <c r="Y96" s="152"/>
-      <c r="Z96" s="152"/>
-      <c r="AA96" s="152"/>
-      <c r="AB96" s="152"/>
-      <c r="AC96" s="152"/>
-      <c r="AD96" s="152"/>
-      <c r="AE96" s="152"/>
-      <c r="AF96" s="152"/>
-      <c r="AG96" s="152"/>
-      <c r="AH96" s="152"/>
+      <c r="B96" s="143"/>
+      <c r="C96" s="143"/>
+      <c r="D96" s="143"/>
+      <c r="E96" s="143"/>
+      <c r="F96" s="143"/>
+      <c r="G96" s="143"/>
+      <c r="H96" s="143"/>
+      <c r="I96" s="143"/>
+      <c r="J96" s="143"/>
+      <c r="K96" s="143"/>
+      <c r="L96" s="143"/>
+      <c r="M96" s="143"/>
+      <c r="N96" s="143"/>
+      <c r="O96" s="143"/>
+      <c r="P96" s="143"/>
+      <c r="Q96" s="143"/>
+      <c r="R96" s="143"/>
+      <c r="S96" s="143"/>
+      <c r="T96" s="143"/>
+      <c r="U96" s="143"/>
+      <c r="V96" s="143"/>
+      <c r="W96" s="143"/>
+      <c r="X96" s="143"/>
+      <c r="Y96" s="143"/>
+      <c r="Z96" s="143"/>
+      <c r="AA96" s="143"/>
+      <c r="AB96" s="143"/>
+      <c r="AC96" s="143"/>
+      <c r="AD96" s="143"/>
+      <c r="AE96" s="143"/>
+      <c r="AF96" s="143"/>
+      <c r="AG96" s="143"/>
+      <c r="AH96" s="143"/>
     </row>
     <row r="97" spans="1:34" ht="33" customHeight="1">
-      <c r="A97" s="151" t="s">
+      <c r="A97" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="152"/>
-      <c r="C97" s="152"/>
-      <c r="D97" s="152"/>
-      <c r="E97" s="152"/>
-      <c r="F97" s="152"/>
-      <c r="G97" s="152"/>
-      <c r="H97" s="152"/>
-      <c r="I97" s="152"/>
-      <c r="J97" s="152"/>
-      <c r="K97" s="152"/>
-      <c r="L97" s="152"/>
-      <c r="M97" s="152"/>
-      <c r="N97" s="152"/>
-      <c r="O97" s="152"/>
-      <c r="P97" s="152"/>
-      <c r="Q97" s="152"/>
-      <c r="R97" s="152"/>
-      <c r="S97" s="152"/>
-      <c r="T97" s="152"/>
-      <c r="U97" s="152"/>
-      <c r="V97" s="152"/>
-      <c r="W97" s="152"/>
-      <c r="X97" s="152"/>
-      <c r="Y97" s="152"/>
-      <c r="Z97" s="152"/>
-      <c r="AA97" s="152"/>
-      <c r="AB97" s="152"/>
-      <c r="AC97" s="152"/>
-      <c r="AD97" s="152"/>
-      <c r="AE97" s="152"/>
-      <c r="AF97" s="152"/>
-      <c r="AG97" s="152"/>
-      <c r="AH97" s="152"/>
+      <c r="B97" s="143"/>
+      <c r="C97" s="143"/>
+      <c r="D97" s="143"/>
+      <c r="E97" s="143"/>
+      <c r="F97" s="143"/>
+      <c r="G97" s="143"/>
+      <c r="H97" s="143"/>
+      <c r="I97" s="143"/>
+      <c r="J97" s="143"/>
+      <c r="K97" s="143"/>
+      <c r="L97" s="143"/>
+      <c r="M97" s="143"/>
+      <c r="N97" s="143"/>
+      <c r="O97" s="143"/>
+      <c r="P97" s="143"/>
+      <c r="Q97" s="143"/>
+      <c r="R97" s="143"/>
+      <c r="S97" s="143"/>
+      <c r="T97" s="143"/>
+      <c r="U97" s="143"/>
+      <c r="V97" s="143"/>
+      <c r="W97" s="143"/>
+      <c r="X97" s="143"/>
+      <c r="Y97" s="143"/>
+      <c r="Z97" s="143"/>
+      <c r="AA97" s="143"/>
+      <c r="AB97" s="143"/>
+      <c r="AC97" s="143"/>
+      <c r="AD97" s="143"/>
+      <c r="AE97" s="143"/>
+      <c r="AF97" s="143"/>
+      <c r="AG97" s="143"/>
+      <c r="AH97" s="143"/>
     </row>
     <row r="98" spans="1:34" ht="33" customHeight="1">
-      <c r="A98" s="147"/>
-      <c r="B98" s="147"/>
-      <c r="C98" s="147"/>
-      <c r="D98" s="147"/>
+      <c r="A98" s="136"/>
+      <c r="B98" s="136"/>
+      <c r="C98" s="136"/>
+      <c r="D98" s="136"/>
       <c r="E98" s="2"/>
       <c r="F98" s="4"/>
       <c r="G98" s="2"/>
@@ -8194,16 +9378,22 @@
   </sheetData>
   <sheetProtection password="CB52" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="42">
-    <mergeCell ref="AG9:AH10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="I5:U5"/>
+    <mergeCell ref="I1:U1"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="I3:U3"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="A98:D98"/>
     <mergeCell ref="I6:U6"/>
     <mergeCell ref="C9:D10"/>
@@ -8220,22 +9410,16 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="S10:T10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="I5:U5"/>
-    <mergeCell ref="I1:U1"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="I3:U3"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AG9:AH10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="AA10:AB10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B63" r:id="rId1" location="dst100375" display="http://www.consultant.ru/document/cons_doc_LAW_300850/9f5fbd89acd2e5dede9805ccc99176d3915a449d/ - dst100375"/>
